--- a/Documentation/Gantt_Charts/PredictiveChart.xlsx
+++ b/Documentation/Gantt_Charts/PredictiveChart.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+  <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chillcilantro/Documents/KU_Year_2/EECS448/Tactics/Documentation/Gantt_Charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04196947-0009-6C4D-9E42-8D9B877EBF05}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34280" yWindow="2440" windowWidth="27800" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="460" windowWidth="13440" windowHeight="12640"/>
   </bookViews>
   <sheets>
-    <sheet name="Gantt chart1" sheetId="2" r:id="rId1"/>
-    <sheet name="Gantt chart2" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -29,71 +38,59 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t>End Date</t>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>Gather requirements</t>
-  </si>
-  <si>
-    <t>UI Design</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>Unit tests</t>
-  </si>
-  <si>
-    <t>System test</t>
-  </si>
-  <si>
-    <t>Beta 1</t>
-  </si>
-  <si>
-    <t>Bug fixes</t>
-  </si>
-  <si>
-    <t>Improvements</t>
-  </si>
-  <si>
-    <t>Final testing</t>
-  </si>
-  <si>
-    <t>Release version</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
-    <t>Task 6</t>
-  </si>
-  <si>
-    <t>Initial source: https://www.ablebits.com/office-addins-blog/2014/05/23/make-gantt-chart-excel/</t>
+    <t>Look at requirements/Brainstorm</t>
+  </si>
+  <si>
+    <t>Begin to design project</t>
+  </si>
+  <si>
+    <t>Laying out schematics of project</t>
+  </si>
+  <si>
+    <t>Coding and implementing design</t>
+  </si>
+  <si>
+    <t>Adding features</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Improving design</t>
+  </si>
+  <si>
+    <t>Creating any add-ons</t>
+  </si>
+  <si>
+    <t>Final testing/bugs</t>
+  </si>
+  <si>
+    <t>Prepare for presentation</t>
+  </si>
+  <si>
+    <t>Requirements for project 4</t>
+  </si>
+  <si>
+    <t>Design of added features</t>
+  </si>
+  <si>
+    <t>Coding/implementing design</t>
+  </si>
+  <si>
+    <t>Testing for project 4</t>
+  </si>
+  <si>
+    <t>Finalize code for added features/documentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mmm"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,34 +98,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,82 +119,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStyleMedium18 2" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFF8F284"/>
-      <color rgb="FFA2C549"/>
+      <color rgb="FF12A616"/>
+      <color rgb="FF0B732E"/>
     </mruColors>
   </colors>
   <extLst>
@@ -233,7 +146,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -248,17 +161,7 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.2237819596874715"/>
-          <c:y val="7.1052278845101499E-2"/>
-          <c:w val="0.7073119914064796"/>
-          <c:h val="0.86647823344158914"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -267,15 +170,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Gantt chart1'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Start Date</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Start</c:v>
           </c:tx>
           <c:spPr>
             <a:noFill/>
@@ -287,84 +182,120 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt chart1'!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>Gather requirements</c:v>
+                  <c:v>Look at requirements/Brainstorm</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>UI Design</c:v>
+                  <c:v>Begin to design project</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Coding</c:v>
+                  <c:v>Laying out schematics of project</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Unit tests</c:v>
+                  <c:v>Coding and implementing design</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>System test</c:v>
+                  <c:v>Adding features</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Beta 1</c:v>
+                  <c:v>Testing</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Bug fixes</c:v>
+                  <c:v>Improving design</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Improvements</c:v>
+                  <c:v>Creating any add-ons</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Final testing</c:v>
+                  <c:v>Final testing/bugs</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Release version</c:v>
+                  <c:v>Prepare for presentation</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Requirements for project 4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Design of added features</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Coding/implementing design</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Testing for project 4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Finalize code for added features/documentation</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Prepare for presentation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt chart1'!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>41730</c:v>
+                  <c:v>43173.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41736</c:v>
+                  <c:v>43174.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41748</c:v>
+                  <c:v>43176.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41771</c:v>
+                  <c:v>43179.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41778</c:v>
+                  <c:v>43187.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41790</c:v>
+                  <c:v>43191.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41793</c:v>
+                  <c:v>43193.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41808</c:v>
+                  <c:v>43196.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41823</c:v>
+                  <c:v>43197.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41830</c:v>
+                  <c:v>43198.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43201.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43203.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43207.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43213.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43217.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43224.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EB23-8C4B-BAA9-3082C675A997}"/>
+              <c16:uniqueId val="{00000000-0680-4CFC-98FC-2F5E96A7163C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -375,9 +306,32 @@
             <c:v>Duration</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="12A616"/>
+                </a:gs>
+                <a:gs pos="74000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="83000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -386,84 +340,120 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt chart1'!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>Gather requirements</c:v>
+                  <c:v>Look at requirements/Brainstorm</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>UI Design</c:v>
+                  <c:v>Begin to design project</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Coding</c:v>
+                  <c:v>Laying out schematics of project</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Unit tests</c:v>
+                  <c:v>Coding and implementing design</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>System test</c:v>
+                  <c:v>Adding features</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Beta 1</c:v>
+                  <c:v>Testing</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Bug fixes</c:v>
+                  <c:v>Improving design</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Improvements</c:v>
+                  <c:v>Creating any add-ons</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Final testing</c:v>
+                  <c:v>Final testing/bugs</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Release version</c:v>
+                  <c:v>Prepare for presentation</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Requirements for project 4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Design of added features</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Coding/implementing design</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Testing for project 4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Finalize code for added features/documentation</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Prepare for presentation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt chart1'!$D$2:$D$11</c:f>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EB23-8C4B-BAA9-3082C675A997}"/>
+              <c16:uniqueId val="{00000001-0680-4CFC-98FC-2F5E96A7163C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -477,11 +467,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="800772560"/>
-        <c:axId val="800775360"/>
+        <c:axId val="-2010301248"/>
+        <c:axId val="-2010298928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="800772560"/>
+        <c:axId val="-2010301248"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -524,7 +514,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="800775360"/>
+        <c:crossAx val="-2010298928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -532,10 +522,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="800775360"/>
+        <c:axId val="-2010298928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="41730"/>
+          <c:max val="43230.0"/>
+          <c:min val="43173.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -584,10 +575,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="800772560"/>
+        <c:crossAx val="-2010301248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="15"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -600,6 +590,13 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -626,302 +623,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Gantt chart2'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Start Date</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Gantt chart2'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Task 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Task 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Task 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Task 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Task 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Task 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Gantt chart2'!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>mmm</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>41730</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41791</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41857</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41880</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41927</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41939</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-04B2-9F46-AA49-0DCF0B45D45A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Duration</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="69710">
-                  <a:srgbClr val="90A985"/>
-                </a:gs>
-                <a:gs pos="48660">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="5000"/>
-                    <a:lumOff val="95000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="45000"/>
-                    <a:lumOff val="55000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="96500">
-                  <a:srgbClr val="B0C6E1"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="30000"/>
-                    <a:lumOff val="70000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-            </a:gradFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-04B2-9F46-AA49-0DCF0B45D45A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Gantt chart2'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Task 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Task 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Task 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Task 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Task 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Task 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Gantt chart2'!$D$2:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-04B2-9F46-AA49-0DCF0B45D45A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="0"/>
-        <c:overlap val="100"/>
-        <c:axId val="1036725872"/>
-        <c:axId val="211498896"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1036725872"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="12700" dir="9000000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:crossAx val="211498896"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="211498896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="41730"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="mmm" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:effectLst/>
-        </c:spPr>
-        <c:crossAx val="1036725872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="31"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1479,64 +1180,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62622D34-3816-4530-858B-1E119CA41FEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,44 +1228,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1633,31 +1293,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1685,23 +1328,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1713,519 +1339,349 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="1">
+        <v>43173</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6">
-        <v>41730</v>
-      </c>
-      <c r="C2" s="1">
-        <f>B2+5</f>
-        <v>41735</v>
-      </c>
-      <c r="D2">
-        <f>C2-B2</f>
+      <c r="B3" s="1">
+        <v>43174</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="1">
+        <v>43176</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7">
-        <f t="shared" ref="B3:B11" si="0">C2+1</f>
-        <v>41736</v>
-      </c>
-      <c r="C3" s="3">
-        <f>B3+11</f>
-        <v>41747</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D11" si="1">C3-B3</f>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43179</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43187</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43191</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43193</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43196</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10" s="1">
+        <v>43197</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <f t="shared" si="0"/>
-        <v>41748</v>
-      </c>
-      <c r="C4" s="1">
-        <f>B4+22</f>
-        <v>41770</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>22</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43198</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43201</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43203</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43207</v>
+      </c>
+      <c r="C14">
         <v>7</v>
       </c>
-      <c r="B5" s="7">
-        <f t="shared" si="0"/>
-        <v>41771</v>
-      </c>
-      <c r="C5" s="3">
-        <f>B5+6</f>
-        <v>41777</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6">
-        <f t="shared" si="0"/>
-        <v>41778</v>
-      </c>
-      <c r="C6" s="1">
-        <f>B6+11</f>
-        <v>41789</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>11</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43213</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7">
-        <f t="shared" si="0"/>
-        <v>41790</v>
-      </c>
-      <c r="C7" s="3">
-        <f>B7+2</f>
-        <v>41792</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43217</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43224</v>
+      </c>
+      <c r="C17">
         <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6">
-        <f t="shared" si="0"/>
-        <v>41793</v>
-      </c>
-      <c r="C8" s="1">
-        <f>B8+14</f>
-        <v>41807</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7">
-        <f t="shared" si="0"/>
-        <v>41808</v>
-      </c>
-      <c r="C9" s="3">
-        <f>B9+14</f>
-        <v>41822</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6">
-        <f t="shared" si="0"/>
-        <v>41823</v>
-      </c>
-      <c r="C10" s="1">
-        <f>B10+6</f>
-        <v>41829</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7">
-        <f t="shared" si="0"/>
-        <v>41830</v>
-      </c>
-      <c r="C11" s="3">
-        <f>B11+2</f>
-        <v>41832</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="8">
-        <v>41730</v>
-      </c>
-      <c r="C2" s="1">
-        <f>B2+60</f>
-        <v>41790</v>
-      </c>
-      <c r="D2">
-        <f>C2-B2</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="9">
-        <f t="shared" ref="B3:B11" si="0">C2+1</f>
-        <v>41791</v>
-      </c>
-      <c r="C3" s="3">
-        <f>B3+65</f>
-        <v>41856</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D6" si="1">C3-B3</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="8">
-        <f t="shared" si="0"/>
-        <v>41857</v>
-      </c>
-      <c r="C4" s="1">
-        <f>B4+22</f>
-        <v>41879</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="9">
-        <f t="shared" si="0"/>
-        <v>41880</v>
-      </c>
-      <c r="C5" s="3">
-        <f>B5+46</f>
-        <v>41926</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="8">
-        <f t="shared" si="0"/>
-        <v>41927</v>
-      </c>
-      <c r="C6" s="1">
-        <f>B6+11</f>
-        <v>41938</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9">
-        <f t="shared" si="0"/>
-        <v>41939</v>
-      </c>
-      <c r="C7" s="3">
-        <f>B7+40</f>
-        <v>41979</v>
-      </c>
-      <c r="D7" s="2">
-        <f>C7-B7</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>